--- a/LightYieldEnergy/Simulation.xlsx
+++ b/LightYieldEnergy/Simulation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\LightYieldEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B71CFD-64BB-4F7D-BF0A-9A7D2C10BB78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE374622-D4FD-4CCB-A5E7-E214673C00CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7920" yWindow="7545" windowWidth="13710" windowHeight="8655" xr2:uid="{9430F053-B231-4404-B598-19B142942C84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9430F053-B231-4404-B598-19B142942C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$J$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,70 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
-  <si>
-    <t>0.139828}</t>
-  </si>
-  <si>
-    <t>0.291003}</t>
-  </si>
-  <si>
-    <t>0.268053}</t>
-  </si>
-  <si>
-    <t>0.187728}</t>
-  </si>
-  <si>
-    <t>0.144059}</t>
-  </si>
-  <si>
-    <t>0.260487}</t>
-  </si>
-  <si>
-    <t>0.155641}</t>
-  </si>
-  <si>
-    <t>0.318460}</t>
-  </si>
-  <si>
-    <t>0.245386}</t>
-  </si>
-  <si>
-    <t>0.212392}</t>
-  </si>
-  <si>
-    <t>0.158619}</t>
-  </si>
-  <si>
-    <t>0.284562}</t>
-  </si>
-  <si>
-    <t>0.172011}</t>
-  </si>
-  <si>
-    <t>0.275337}</t>
-  </si>
-  <si>
-    <t>0.296515}</t>
-  </si>
-  <si>
-    <t>0.209994}</t>
-  </si>
-  <si>
-    <t>0.176007}</t>
-  </si>
-  <si>
-    <t>0.316136}</t>
-  </si>
-  <si>
-    <t>e14</t>
-  </si>
-  <si>
-    <t>e26</t>
-  </si>
-  <si>
-    <t>e52</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Simulation</t>
   </si>
@@ -112,6 +49,120 @@
   </si>
   <si>
     <t>Nummer Photonen</t>
+  </si>
+  <si>
+    <t>Edep Scint</t>
+  </si>
+  <si>
+    <t>219.005473}</t>
+  </si>
+  <si>
+    <t>441.979757}</t>
+  </si>
+  <si>
+    <t>409.511971}</t>
+  </si>
+  <si>
+    <t>295.058981}</t>
+  </si>
+  <si>
+    <t>218.705434}</t>
+  </si>
+  <si>
+    <t>407.472577}</t>
+  </si>
+  <si>
+    <t>303.385923}</t>
+  </si>
+  <si>
+    <t>656.174379}</t>
+  </si>
+  <si>
+    <t>470.243015}</t>
+  </si>
+  <si>
+    <t>431.274575}</t>
+  </si>
+  <si>
+    <t>312.103044}</t>
+  </si>
+  <si>
+    <t>567.534326}</t>
+  </si>
+  <si>
+    <t>448.415052}</t>
+  </si>
+  <si>
+    <t>699.587840}</t>
+  </si>
+  <si>
+    <t>764.760687}</t>
+  </si>
+  <si>
+    <t>551.220885}</t>
+  </si>
+  <si>
+    <t>443.086491}</t>
+  </si>
+  <si>
+    <t>814.340603}</t>
+  </si>
+  <si>
+    <t>{3.495308</t>
+  </si>
+  <si>
+    <t>{22.402966</t>
+  </si>
+  <si>
+    <t>{21.915907</t>
+  </si>
+  <si>
+    <t>{16.684208</t>
+  </si>
+  <si>
+    <t>{6.916837</t>
+  </si>
+  <si>
+    <t>{22.016294</t>
+  </si>
+  <si>
+    <t>{3.487115</t>
+  </si>
+  <si>
+    <t>{22.831242</t>
+  </si>
+  <si>
+    <t>{22.357861</t>
+  </si>
+  <si>
+    <t>{17.078144</t>
+  </si>
+  <si>
+    <t>{6.960805</t>
+  </si>
+  <si>
+    <t>{22.517860</t>
+  </si>
+  <si>
+    <t>{3.497428</t>
+  </si>
+  <si>
+    <t>{23.101456</t>
+  </si>
+  <si>
+    <t>{22.776672</t>
+  </si>
+  <si>
+    <t>{17.205738</t>
+  </si>
+  <si>
+    <t>{6.949921</t>
+  </si>
+  <si>
+    <t>{22.879469</t>
+  </si>
+  <si>
+    <t>Edep total</t>
   </si>
 </sst>
 </file>
@@ -119,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -152,7 +203,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,56 +518,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0684F99A-7C00-42C4-9745-4498B324A54C}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>3.4953080000000001</v>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1.4851890000000001</v>
@@ -528,24 +579,24 @@
         <v>2477664</v>
       </c>
       <c r="H3">
-        <v>70.682441999999995</v>
+        <v>110706.55042499999</v>
       </c>
       <c r="I3">
-        <v>29.177731000000001</v>
+        <v>45699.691696000002</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>16.684208000000002</v>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4">
         <v>7.003965</v>
@@ -557,24 +608,24 @@
         <v>2459349</v>
       </c>
       <c r="H4">
-        <v>69.891036999999997</v>
+        <v>109850.35595899999</v>
       </c>
       <c r="I4">
-        <v>29.921240000000001</v>
+        <v>47028.335585000001</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>6.9168370000000001</v>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
       <c r="E5">
         <v>2.92334</v>
@@ -586,24 +637,24 @@
         <v>2418432</v>
       </c>
       <c r="H5">
-        <v>71.166602999999995</v>
+        <v>108042.781019</v>
       </c>
       <c r="I5">
-        <v>28.689342</v>
+        <v>43555.210706999998</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>22.016293999999998</v>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
       <c r="E6">
         <v>9.2301389999999994</v>
@@ -615,24 +666,24 @@
         <v>2462108</v>
       </c>
       <c r="H6">
-        <v>70.306556999999998</v>
+        <v>109978.45666700001</v>
       </c>
       <c r="I6">
-        <v>29.432956999999998</v>
+        <v>46041.097847999998</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>22.402965999999999</v>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7">
         <v>9.3903920000000003</v>
@@ -644,24 +695,24 @@
         <v>2406257</v>
       </c>
       <c r="H7">
-        <v>70.763947000000002</v>
+        <v>107477.302728</v>
       </c>
       <c r="I7">
-        <v>28.945046999999999</v>
+        <v>43962.157866000001</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>21.915907000000001</v>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="E8">
         <v>9.1875440000000008</v>
@@ -673,24 +724,33 @@
         <v>2395406</v>
       </c>
       <c r="H8">
-        <v>70.031638999999998</v>
+        <v>106989.18683599999</v>
       </c>
       <c r="I8">
-        <v>29.700310000000002</v>
+        <v>45373.948708999997</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>3.4871150000000002</v>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1.4876670000000001</v>
@@ -702,28 +762,40 @@
         <v>3152721</v>
       </c>
       <c r="H10">
-        <v>72.267746000000002</v>
+        <v>140868.70208700001</v>
       </c>
       <c r="I10">
-        <v>27.576616000000001</v>
+        <v>53754.026295999996</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <f>G10/G3-1</f>
         <v>0.27245704017978234</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f>H10/H3-1</f>
+        <v>0.27245137298748978</v>
+      </c>
+      <c r="W10">
+        <f>I10/I3-1</f>
+        <v>0.17624483450738415</v>
+      </c>
+      <c r="AB10">
+        <f>(I10+H10)/(I3+H3)-1</f>
+        <v>0.24434118321463627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>17.078144000000002</v>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
       <c r="E11">
         <v>7.1679389999999996</v>
@@ -735,28 +807,40 @@
         <v>3244544</v>
       </c>
       <c r="H11">
-        <v>71.366805999999997</v>
+        <v>144914.43148500001</v>
       </c>
       <c r="I11">
-        <v>28.420807</v>
+        <v>57710.098122000003</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L15" si="0">G11/G4-1</f>
+        <f>G11/G4-1</f>
         <v>0.31926944894766862</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f>H11/H4-1</f>
+        <v>0.31919856080472919</v>
+      </c>
+      <c r="W11">
+        <f>I11/I4-1</f>
+        <v>0.22713460734100521</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ref="AB11:AB22" si="0">(I11+H11)/(I4+H4)-1</f>
+        <v>0.29160007399838372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>6.9608049999999997</v>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
       <c r="E12">
         <v>2.9503689999999998</v>
@@ -768,28 +852,40 @@
         <v>3174891</v>
       </c>
       <c r="H12">
-        <v>72.073020999999997</v>
+        <v>141813.20661699999</v>
       </c>
       <c r="I12">
-        <v>27.768360000000001</v>
+        <v>54637.923424000001</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L12">
+        <f>G12/G5-1</f>
+        <v>0.31278903024769766</v>
+      </c>
+      <c r="R12">
+        <f>H12/H5-1</f>
+        <v>0.31256531236511997</v>
+      </c>
+      <c r="W12">
+        <f>I12/I5-1</f>
+        <v>0.25445205147908601</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="0"/>
-        <v>0.31278903024769766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.29586894789522056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>22.517859999999999</v>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
       </c>
       <c r="E13">
         <v>9.4447949999999992</v>
@@ -801,28 +897,40 @@
         <v>3225173</v>
       </c>
       <c r="H13">
-        <v>72.227622999999994</v>
+        <v>144051.801725</v>
       </c>
       <c r="I13">
-        <v>27.487812000000002</v>
+        <v>54822.082977999999</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L13">
+        <f>G13/G6-1</f>
+        <v>0.30992344771228564</v>
+      </c>
+      <c r="R13">
+        <f>H13/H6-1</f>
+        <v>0.30981835980086081</v>
+      </c>
+      <c r="W13">
+        <f>I13/I6-1</f>
+        <v>0.19072058531248604</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="0"/>
-        <v>0.30992344771228564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.27467281470720972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>22.831242</v>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
       <c r="E14">
         <v>9.5755750000000006</v>
@@ -834,28 +942,40 @@
         <v>3346629</v>
       </c>
       <c r="H14">
-        <v>72.541297999999998</v>
+        <v>149468.61167300001</v>
       </c>
       <c r="I14">
-        <v>27.140242000000001</v>
+        <v>55921.443459000002</v>
       </c>
       <c r="J14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L14">
+        <f>G14/G7-1</f>
+        <v>0.39080281117104287</v>
+      </c>
+      <c r="R14">
+        <f>H14/H7-1</f>
+        <v>0.39069931863911989</v>
+      </c>
+      <c r="W14">
+        <f>I14/I7-1</f>
+        <v>0.27203590937125544</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="0"/>
-        <v>0.39080281117104287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.35625189317491213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>22.357861</v>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
       </c>
       <c r="E15">
         <v>9.3729080000000007</v>
@@ -867,16 +987,16 @@
         <v>3076900</v>
       </c>
       <c r="H15">
-        <v>71.731978999999995</v>
+        <v>137462.75163000001</v>
       </c>
       <c r="I15">
-        <v>28.022635999999999</v>
+        <v>53700.859539999998</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f>G15/G8-1</f>
         <v>0.28450041454350528</v>
       </c>
       <c r="N15" s="1">
@@ -887,20 +1007,62 @@
         <f>_xlfn.STDEV.P(L10:L15)/(SQRT(COUNT(L10:L15)))</f>
         <v>1.5397574855929689E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f>H15/H8-1</f>
+        <v>0.28482845505417176</v>
+      </c>
+      <c r="T15" s="1">
+        <f>AVERAGE(R10:R15)</f>
+        <v>0.31492689660858192</v>
+      </c>
+      <c r="U15" s="1">
+        <f>_xlfn.STDEV.P(R10:R15)/(SQRT(COUNT(R10:R15)))</f>
+        <v>1.5367233878472024E-2</v>
+      </c>
+      <c r="W15">
+        <f>I15/I8-1</f>
+        <v>0.18351743826404832</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>AVERAGE(W10:W15)</f>
+        <v>0.21735090437921087</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>_xlfn.STDEV.P(W10:W15)/(SQRT(COUNT(W10:W15)))</f>
+        <v>1.4912943701157411E-2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0.25465789665073157</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>AVERAGE(AB10:AB15)</f>
+        <v>0.28623213494018235</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>_xlfn.STDEV.P(AB10:AB15)/(SQRT(COUNT(AB10:AB15)))</f>
+        <v>1.4822891194583323E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>3.4974280000000002</v>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
       </c>
       <c r="E17">
         <v>1.483549</v>
@@ -912,13 +1074,13 @@
         <v>4293555</v>
       </c>
       <c r="H17">
-        <v>73.570723999999998</v>
+        <v>191791.24410499999</v>
       </c>
       <c r="I17">
-        <v>26.257269000000001</v>
+        <v>68449.974348000003</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <f>G17/G3-1</f>
@@ -926,16 +1088,34 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f>H17/H3-1</f>
+        <v>0.73242905111502132</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="W17">
+        <f>I17/I3-1</f>
+        <v>0.49782135956928752</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AB17">
+        <f>(I17+H17)/(I3+H3)-1</f>
+        <v>0.66388000199934827</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>17.205738</v>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
       </c>
       <c r="E18">
         <v>7.2298210000000003</v>
@@ -947,30 +1127,48 @@
         <v>4308917</v>
       </c>
       <c r="H18">
-        <v>73.309105000000002</v>
+        <v>192431.27578600001</v>
       </c>
       <c r="I18">
-        <v>26.480906000000001</v>
+        <v>69510.532244999995</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L22" si="1">G18/G4-1</f>
+        <f>G18/G4-1</f>
         <v>0.75205593024820794</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f>H18/H4-1</f>
+        <v>0.75175832709929602</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="W18">
+        <f t="shared" ref="W18:W22" si="1">I18/I4-1</f>
+        <v>0.47805639685812817</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB22" si="2">(I18+H18)/(I4+H4)-1</f>
+        <v>0.66970928590090151</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>6.9499209999999998</v>
+      <c r="C19">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
       </c>
       <c r="E19">
         <v>2.9390700000000001</v>
@@ -982,30 +1180,48 @@
         <v>4125658</v>
       </c>
       <c r="H19">
-        <v>73.212173000000007</v>
+        <v>184307.488801</v>
       </c>
       <c r="I19">
-        <v>26.611818</v>
+        <v>66993.740479999993</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f>G19/G5-1</f>
         <v>0.70592268048057583</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f>H19/H5-1</f>
+        <v>0.70587509005889415</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>0.53813377073694335</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>0.65768178337879823</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>22.879469</v>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
       </c>
       <c r="E20">
         <v>9.6039019999999997</v>
@@ -1017,30 +1233,48 @@
         <v>4219639</v>
       </c>
       <c r="H20">
-        <v>73.145294000000007</v>
+        <v>188416.13532299999</v>
       </c>
       <c r="I20">
-        <v>26.538571999999998</v>
+        <v>68361.130552000002</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f>G20/G6-1</f>
         <v>0.71383180591590611</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f>H20/H6-1</f>
+        <v>0.71320948695887543</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>0.4847849800994608</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>0.64580181422267136</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>23.101455999999999</v>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
       </c>
       <c r="E21">
         <v>9.6949419999999993</v>
@@ -1052,30 +1286,48 @@
         <v>4164573</v>
       </c>
       <c r="H21">
-        <v>73.200714000000005</v>
+        <v>185991.37873299999</v>
       </c>
       <c r="I21">
-        <v>26.523945000000001</v>
+        <v>67393.121224000002</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f>G21/G7-1</f>
         <v>0.73072660152261371</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f>H21/H7-1</f>
+        <v>0.73051773734684078</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>0.53298028339326198</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>0.67317355042823634</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>22.776672000000001</v>
+      <c r="C22">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
       </c>
       <c r="E22">
         <v>9.5494289999999999</v>
@@ -1087,16 +1339,16 @@
         <v>4212828</v>
       </c>
       <c r="H22">
-        <v>72.940917999999996</v>
+        <v>188126.70241999999</v>
       </c>
       <c r="I22">
-        <v>26.762568000000002</v>
+        <v>69025.096967999998</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f>G22/G8-1</f>
         <v>0.75871146686615965</v>
       </c>
       <c r="N22" s="1">
@@ -1107,10 +1359,46 @@
         <f>_xlfn.STDEV.P(L17:L22)/(SQRT(COUNT(L17:L22)))</f>
         <v>7.6875074245359182E-3</v>
       </c>
+      <c r="R22">
+        <f>H22/H8-1</f>
+        <v>0.75837117734498594</v>
+      </c>
+      <c r="T22" s="1">
+        <f>AVERAGE(R17:R22)</f>
+        <v>0.73202681165398564</v>
+      </c>
+      <c r="U22" s="1">
+        <f>_xlfn.STDEV.P(R17:R22)/(SQRT(COUNT(R17:R22)))</f>
+        <v>7.6807871022198312E-3</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>0.52124950399806735</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>AVERAGE(W17:W22)</f>
+        <v>0.50883771577585823</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>_xlfn.STDEV.P(W17:W22)/(SQRT(COUNT(W17:W22)))</f>
+        <v>9.4905782024719693E-3</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>0.68775602095725419</v>
+      </c>
+      <c r="AD22" s="1">
+        <f>AVERAGE(AB17:AB22)</f>
+        <v>0.66633374281453495</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>_xlfn.STDEV.P(AB17:AB22)/(SQRT(COUNT(AB17:AB22)))</f>
+        <v>5.3216763177476008E-3</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B77:J101">
-    <sortCondition ref="B77:B101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:J48">
+    <sortCondition ref="B43:B48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
